--- a/biology/Mycologie/Guillaume_Eyssartier/Guillaume_Eyssartier.xlsx
+++ b/biology/Mycologie/Guillaume_Eyssartier/Guillaume_Eyssartier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guillaume Eyssartier, né en 1971 à Périgueux, est un mycologue français, docteur ès sciences du Muséum national d'histoire naturelle de Paris[1]. Biologiste de formation, spécialisé en biologie végétale, le prix Henri Romagnesi lui a été décerné[réf. nécessaire] pour ses travaux sur les genres Cantharellus et Craterellus. Il dirige actuellement[Quand ?] des collections naturalistes pour les éditions Humensis/Belin, et est chercheur attaché honoraire au Muséum national d'histoire naturelle. Il est l'auteur de nombreux articles scientifiques et d'ouvrages de vulgarisation de Mycologie. Il est également conférencier (GE) à la Société mycologique de France .
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guillaume Eyssartier, né en 1971 à Périgueux, est un mycologue français, docteur ès sciences du Muséum national d'histoire naturelle de Paris. Biologiste de formation, spécialisé en biologie végétale, le prix Henri Romagnesi lui a été décerné[réf. nécessaire] pour ses travaux sur les genres Cantharellus et Craterellus. Il dirige actuellement[Quand ?] des collections naturalistes pour les éditions Humensis/Belin, et est chercheur attaché honoraire au Muséum national d'histoire naturelle. Il est l'auteur de nombreux articles scientifiques et d'ouvrages de vulgarisation de Mycologie. Il est également conférencier (GE) à la Société mycologique de France .
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Principaux Ouvrages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>2003 : Les champignons par la couleur: guide d'identification (avec B Duhem et Régis Courtecuisse)
 2008 : Guide écologique des Champignons, Région Perigord Quercy – (avec Alain Coustillas)
@@ -549,7 +563,9 @@
           <t>Principales publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1998 : Contribution à la systématique du genre Cantharellus en Afrique tropicale: étude de quelques espèces rouges, Belgian Journal of Botany
 2001 : Vers une monographie du genre Cantharellus Adans. Fr.
